--- a/DDAf_2024_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab30.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4520839F-5DA9-417E-8B88-E526D2AF652D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C259D0B-8660-42D4-9F06-D8BD52447909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A6DCDACC-F57C-4329-80A4-CA96414BD282}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6364B31-2ECD-4BD5-8F1C-44437B8DCAAE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -1641,19 +1641,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCA6E3E3-795A-4137-9E75-30CF3654F4FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD553121-2821-4E27-83B7-9A882F941309}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="12.453125" style="122" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="12.42578125" style="122" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1683,7 +1683,7 @@
       <c r="Z1" s="7"/>
       <c r="AA1" s="8"/>
     </row>
-    <row r="2" spans="1:27" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:27" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
         <v>28</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>8.6852809030021696</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>18.802241227154301</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>32</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>23.084558738659702</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>34</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>27.407083248341401</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>36</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>9.0632822215450997</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>38</v>
       </c>
@@ -2264,7 +2264,7 @@
         <v>9.8066423988037901</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>40</v>
       </c>
@@ -2347,7 +2347,7 @@
         <v>13.8965865078859</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="17" t="s">
         <v>42</v>
       </c>
@@ -2430,7 +2430,7 @@
         <v>24.979748069513899</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
         <v>44</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>8.7048883443014002</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="17" t="s">
         <v>46</v>
       </c>
@@ -2596,7 +2596,7 @@
         <v>12.048500358980201</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="46" t="s">
         <v>48</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>14.939149031393001</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
         <v>50</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>8.4211675140326108</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
         <v>52</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>21.565148021275501</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
         <v>54</v>
       </c>
@@ -2928,7 +2928,7 @@
         <v>13.0535171166163</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
         <v>56</v>
       </c>
@@ -3011,7 +3011,7 @@
         <v>11.657565704334599</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18" s="17" t="s">
         <v>58</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>14.719789069012799</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19" s="17" t="s">
         <v>60</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>8.5977837738576</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
         <v>62</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>10.302434400858701</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A21" s="17" t="s">
         <v>64</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>18.280834640487299</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="17" t="s">
         <v>66</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>18.639415840707599</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="46" t="s">
         <v>48</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>11.5344760915708</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A24" s="17" t="s">
         <v>69</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>15.1709385501134</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>71</v>
       </c>
@@ -3675,7 +3675,7 @@
         <v>13.9665584723937</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
         <v>73</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>20.578378183718002</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A27" s="17" t="s">
         <v>75</v>
       </c>
@@ -3841,7 +3841,7 @@
         <v>6.6859098192215898</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A28" s="17" t="s">
         <v>77</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>8.7534309622199196</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
         <v>79</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>9.1162887595723792</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A30" s="17" t="s">
         <v>81</v>
       </c>
@@ -4090,7 +4090,7 @@
         <v>33.171871178966903</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A31" s="17" t="s">
         <v>83</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>9.3494147422194995</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
         <v>85</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>9.5811137086574991</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
         <v>87</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>10.1994205727945</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A34" s="17" t="s">
         <v>90</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>8.2315035721854102</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
         <v>92</v>
       </c>
@@ -4505,7 +4505,7 @@
         <v>8.6972425785631096</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
         <v>94</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>9.3531965609832906</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17" t="s">
         <v>96</v>
       </c>
@@ -4671,7 +4671,7 @@
         <v>7.2876997598085902</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="46" t="s">
         <v>48</v>
       </c>
@@ -4754,7 +4754,7 @@
         <v>8.3730328211214804</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
         <v>99</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>13.792177133329</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A40" s="17" t="s">
         <v>101</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>25.412173572985001</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
         <v>103</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>13.3960756805206</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
         <v>105</v>
       </c>
@@ -5086,7 +5086,7 @@
         <v>18.933138192747599</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A43" s="17" t="s">
         <v>107</v>
       </c>
@@ -5169,7 +5169,7 @@
         <v>18.482604095899301</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17" t="s">
         <v>109</v>
       </c>
@@ -5252,7 +5252,7 @@
         <v>18.5902699522977</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="46" t="s">
         <v>48</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>20.897680654609601</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A46" s="17" t="s">
         <v>112</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>14.8896166810573</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
         <v>114</v>
       </c>
@@ -5501,7 +5501,7 @@
         <v>16.943781820601199</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A48" s="17" t="s">
         <v>116</v>
       </c>
@@ -5584,7 +5584,7 @@
         <v>29.461206523057701</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
         <v>118</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>17.630714249300102</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
         <v>120</v>
       </c>
@@ -5750,7 +5750,7 @@
         <v>17.139094513736001</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A51" s="17" t="s">
         <v>122</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>26.108509248534901</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A52" s="17" t="s">
         <v>124</v>
       </c>
@@ -5916,7 +5916,7 @@
         <v>18.248829861732901</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
         <v>126</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>18.269882707352998</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A54" s="17" t="s">
         <v>128</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>14.4424927020279</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
         <v>130</v>
       </c>
@@ -6165,7 +6165,7 @@
         <v>16.579616387545698</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
         <v>132</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>11.4744482592601</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
         <v>134</v>
       </c>
@@ -6331,7 +6331,7 @@
         <v>15.134933663935</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
         <v>136</v>
       </c>
@@ -6414,7 +6414,7 @@
         <v>19.061569557136</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
         <v>138</v>
       </c>
@@ -6497,7 +6497,7 @@
         <v>15.658343884074601</v>
       </c>
     </row>
-    <row r="60" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="17" t="s">
         <v>140</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>16.377345690829198</v>
       </c>
     </row>
-    <row r="61" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="46"/>
       <c r="B61" s="47" t="s">
         <v>142</v>
@@ -6661,7 +6661,7 @@
         <v>16.465146415145298</v>
       </c>
     </row>
-    <row r="62" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="76"/>
       <c r="B62" s="77" t="s">
         <v>143</v>
@@ -6742,7 +6742,7 @@
         <v>14.0130499099111</v>
       </c>
     </row>
-    <row r="63" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="76"/>
       <c r="B63" s="84" t="s">
         <v>144</v>
@@ -6823,7 +6823,7 @@
         <v>44.498417413079203</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A64" s="91"/>
       <c r="B64" s="92" t="s">
         <v>145</v>
@@ -6904,7 +6904,7 @@
         <v>28.0013533447325</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A65" s="91"/>
       <c r="B65" s="84" t="s">
         <v>146</v>
@@ -6985,7 +6985,7 @@
         <v>18.715030103292399</v>
       </c>
     </row>
-    <row r="66" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="91"/>
       <c r="B66" s="105" t="s">
         <v>147</v>
@@ -7066,7 +7066,7 @@
         <v>39.261332476694697</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A67" s="91"/>
       <c r="B67" s="84" t="s">
         <v>148</v>
@@ -7147,7 +7147,7 @@
         <v>11.7594990277703</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A68" s="91"/>
       <c r="B68" s="84" t="s">
         <v>149</v>
@@ -7228,7 +7228,7 @@
         <v>17.273784858828201</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A69" s="91"/>
       <c r="B69" s="84" t="s">
         <v>150</v>
@@ -7309,7 +7309,7 @@
         <v>8.5999900780931799</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A70" s="91"/>
       <c r="B70" s="84" t="s">
         <v>151</v>
@@ -7390,7 +7390,7 @@
         <v>10.9441731638632</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A71" s="91"/>
       <c r="B71" s="84" t="s">
         <v>152</v>
@@ -7471,7 +7471,7 @@
         <v>16.465146415145298</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A72" s="91"/>
       <c r="B72" s="84" t="s">
         <v>153</v>
@@ -7552,7 +7552,7 @@
         <v>7.7558819440976903</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A73" s="91"/>
       <c r="B73" s="84" t="s">
         <v>154</v>
@@ -7633,7 +7633,7 @@
         <v>12.055112596925101</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="91"/>
       <c r="B74" s="84" t="s">
         <v>154</v>
@@ -7714,7 +7714,7 @@
         <v>16.2235774044915</v>
       </c>
     </row>
-    <row r="75" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="91"/>
       <c r="B75" s="84" t="s">
         <v>155</v>
@@ -7795,7 +7795,7 @@
         <v>9.7092918748914805</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="91"/>
       <c r="B76" s="112" t="s">
         <v>156</v>
@@ -7876,7 +7876,7 @@
         <v>10.9701439812156</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="91"/>
       <c r="B77" s="84" t="s">
         <v>157</v>
@@ -7957,7 +7957,7 @@
         <v>27.640561724153301</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="91"/>
       <c r="B78" s="84" t="s">
         <v>157</v>
@@ -8038,7 +8038,7 @@
         <v>136.220952983334</v>
       </c>
     </row>
-    <row r="79" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="91"/>
       <c r="B79" s="105" t="s">
         <v>158</v>
@@ -8119,7 +8119,7 @@
         <v>101.665947510666</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="91"/>
       <c r="B80" s="84" t="s">
         <v>159</v>
@@ -8200,7 +8200,7 @@
         <v>12.005222916708799</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="91"/>
       <c r="B81" s="84" t="s">
         <v>160</v>
@@ -8281,7 +8281,7 @@
         <v>89.707544734913697</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="91"/>
       <c r="B82" s="84" t="s">
         <v>161</v>
@@ -8362,7 +8362,7 @@
         <v>14.217490465298299</v>
       </c>
     </row>
-    <row r="83" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="91"/>
       <c r="B83" s="84" t="s">
         <v>162</v>
@@ -8443,7 +8443,7 @@
         <v>40.704919747168198</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="91"/>
       <c r="B84" s="112" t="s">
         <v>163</v>
@@ -8524,7 +8524,7 @@
         <v>9.5917136589731999</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="91"/>
       <c r="B85" s="119" t="s">
         <v>164</v>
@@ -8605,7 +8605,7 @@
         <v>11.322404683217499</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="91"/>
       <c r="B86" s="84" t="s">
         <v>165</v>
@@ -8686,7 +8686,7 @@
         <v>16.363252122229198</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="91"/>
       <c r="B87" s="84" t="s">
         <v>166</v>
@@ -8767,7 +8767,7 @@
         <v>24.030805858639201</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="91"/>
       <c r="B88" s="84" t="s">
         <v>167</v>
@@ -8848,7 +8848,7 @@
         <v>23.027104307494302</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="91"/>
       <c r="B89" s="84" t="s">
         <v>168</v>
@@ -8929,7 +8929,7 @@
         <v>32.962227677621001</v>
       </c>
     </row>
-    <row r="90" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="91"/>
       <c r="B90" s="105" t="s">
         <v>169</v>
@@ -9010,7 +9010,7 @@
         <v>113.96078720270999</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="91"/>
       <c r="B91" s="84" t="s">
         <v>170</v>
@@ -9091,7 +9091,7 @@
         <v>10.110221062339299</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="91"/>
       <c r="B92" s="84" t="s">
         <v>171</v>
@@ -9172,7 +9172,7 @@
         <v>20.946528160215902</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="91"/>
       <c r="B93" s="84" t="s">
         <v>172</v>
@@ -9253,7 +9253,7 @@
         <v>22.811130701319101</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="91"/>
       <c r="B94" s="84" t="s">
         <v>173</v>
@@ -9334,7 +9334,7 @@
         <v>22.557128282239798</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="91"/>
       <c r="B95" s="84" t="s">
         <v>174</v>
@@ -9415,7 +9415,7 @@
         <v>9.6551190582255604</v>
       </c>
     </row>
-    <row r="96" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="91"/>
       <c r="B96" s="84" t="s">
         <v>175</v>
@@ -9496,7 +9496,7 @@
         <v>48.901675602001099</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="91"/>
       <c r="B97" s="112" t="s">
         <v>176</v>
@@ -9577,7 +9577,7 @@
         <v>12.104469221469699</v>
       </c>
     </row>
-    <row r="98" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="91"/>
       <c r="B98" s="105" t="s">
         <v>177</v>
@@ -9658,7 +9658,7 @@
         <v>27.358695805456101</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A99" s="120"/>
       <c r="B99" s="121"/>
       <c r="C99" s="86"/>
@@ -9687,7 +9687,7 @@
       <c r="Z99" s="89"/>
       <c r="AA99" s="89"/>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>178</v>
       </c>
@@ -9709,7 +9709,7 @@
       <c r="Z100" s="124"/>
       <c r="AA100" s="124"/>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>179</v>
       </c>
@@ -9731,7 +9731,7 @@
       <c r="Z101" s="124"/>
       <c r="AA101" s="124"/>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>180</v>
       </c>
@@ -9753,7 +9753,7 @@
       <c r="Z102" s="124"/>
       <c r="AA102" s="124"/>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>181</v>
       </c>
@@ -9775,7 +9775,7 @@
       <c r="Z103" s="124"/>
       <c r="AA103" s="124"/>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>182</v>
       </c>
@@ -9797,7 +9797,7 @@
       <c r="Z104" s="124"/>
       <c r="AA104" s="124"/>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.25">
       <c r="E105" s="123"/>
       <c r="G105" s="123"/>
       <c r="H105" s="123"/>
@@ -9816,7 +9816,7 @@
       <c r="Z105" s="124"/>
       <c r="AA105" s="124"/>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B106" s="125"/>
       <c r="E106" s="123"/>
       <c r="G106" s="123"/>
@@ -9836,7 +9836,7 @@
       <c r="Z106" s="124"/>
       <c r="AA106" s="124"/>
     </row>
-    <row r="107" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="126" t="s">
         <v>183</v>
       </c>
@@ -9858,7 +9858,7 @@
       <c r="Z107" s="124"/>
       <c r="AA107" s="124"/>
     </row>
-    <row r="108" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="126"/>
       <c r="E108" s="123"/>
       <c r="G108" s="123"/>
@@ -9878,7 +9878,7 @@
       <c r="Z108" s="124"/>
       <c r="AA108" s="124"/>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>185</v>
       </c>
@@ -9900,7 +9900,7 @@
       <c r="Z109" s="124"/>
       <c r="AA109" s="124"/>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>186</v>
       </c>
@@ -9922,7 +9922,7 @@
       <c r="Z110" s="124"/>
       <c r="AA110" s="124"/>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="127" t="s">
         <v>187</v>
       </c>
@@ -9944,7 +9944,7 @@
       <c r="Z111" s="124"/>
       <c r="AA111" s="124"/>
     </row>
-    <row r="112" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="2" t="s">
         <v>184</v>
@@ -9967,7 +9967,7 @@
       <c r="Z112" s="124"/>
       <c r="AA112" s="124"/>
     </row>
-    <row r="113" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1"/>
       <c r="B113" s="2"/>
       <c r="E113" s="123"/>
@@ -9988,7 +9988,7 @@
       <c r="Z113" s="124"/>
       <c r="AA113" s="124"/>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="E114" s="123"/>
       <c r="G114" s="123"/>
@@ -10010,11 +10010,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{41979EEE-586B-44AD-B804-8A89989273B8}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7309FF45-4A71-4EA6-8398-067856EF2B75}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{26D60E64-81BB-4E46-A1AE-7CEB57990C40}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{1B9C0EC7-07DB-4459-8F5C-E8548603F5B9}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{4FB573DB-B11E-4EBC-B47D-E81B4676ABD1}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1DB85C81-3007-4AC7-BDC9-A34722919B1F}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0F5F002F-38EF-402C-BD9B-7D2946C8B6C8}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{EB637EE9-0B93-44A4-A1B4-50EABEB7C657}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{C49C8FDF-BDAE-487B-9382-116BB4416435}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{A07FEC15-B314-4FB9-9ACF-4E849D322C66}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C259D0B-8660-42D4-9F06-D8BD52447909}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D0C07C-1C42-4995-8329-8919CE73982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A6364B31-2ECD-4BD5-8F1C-44437B8DCAAE}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CA178AC4-7FB7-4240-B648-7582A8E2DC56}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -610,7 +610,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -735,13 +735,6 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFD42C2D"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -957,7 +950,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1323,8 +1316,7 @@
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1641,7 +1633,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD553121-2821-4E27-83B7-9A882F941309}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED28F33-94CF-45A4-87EE-1D823826D26D}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -9817,7 +9809,6 @@
       <c r="AA105" s="124"/>
     </row>
     <row r="106" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B106" s="125"/>
       <c r="E106" s="123"/>
       <c r="G106" s="123"/>
       <c r="H106" s="123"/>
@@ -9837,7 +9828,7 @@
       <c r="AA106" s="124"/>
     </row>
     <row r="107" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="126" t="s">
+      <c r="B107" s="125" t="s">
         <v>183</v>
       </c>
       <c r="E107" s="123"/>
@@ -9859,7 +9850,7 @@
       <c r="AA107" s="124"/>
     </row>
     <row r="108" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="126"/>
+      <c r="B108" s="125"/>
       <c r="E108" s="123"/>
       <c r="G108" s="123"/>
       <c r="H108" s="123"/>
@@ -9923,7 +9914,7 @@
       <c r="AA110" s="124"/>
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="B111" s="127" t="s">
+      <c r="B111" s="126" t="s">
         <v>187</v>
       </c>
       <c r="E111" s="123"/>
@@ -9946,7 +9937,7 @@
     </row>
     <row r="112" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="126" t="s">
         <v>184</v>
       </c>
       <c r="E112" s="123"/>
@@ -10010,11 +10001,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{1DB85C81-3007-4AC7-BDC9-A34722919B1F}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{0F5F002F-38EF-402C-BD9B-7D2946C8B6C8}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{EB637EE9-0B93-44A4-A1B4-50EABEB7C657}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{C49C8FDF-BDAE-487B-9382-116BB4416435}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{A07FEC15-B314-4FB9-9ACF-4E849D322C66}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5B2B0B7F-A082-45D8-8587-91334326233C}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A7AAEF60-8260-4812-9059-569E1604FBFA}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{5E4E5535-E792-4E51-97FD-8F2226793F56}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{33F0C92E-4BF0-46EF-B458-8001FCA84C68}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{CF84C790-295E-47FD-BAE2-D14994CBB86D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab30.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab30.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57D0C07C-1C42-4995-8329-8919CE73982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D20329DF-A20F-484E-B661-FAA972CD2F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{CA178AC4-7FB7-4240-B648-7582A8E2DC56}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{943E91C8-5964-4EC8-AA57-03196385923C}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab30" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="190">
   <si>
     <t>Tableau 30 : Causes environnementales des décès prématurés</t>
   </si>
@@ -506,13 +506,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1633,7 +1639,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED28F33-94CF-45A4-87EE-1D823826D26D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664B026B-4678-4C1E-B0F4-6383325061C5}">
   <dimension ref="A1:AA114"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -7628,7 +7634,7 @@
     <row r="74" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A74" s="91"/>
       <c r="B74" s="84" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C74" s="99">
         <v>60792</v>
@@ -7709,7 +7715,7 @@
     <row r="75" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="91"/>
       <c r="B75" s="84" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C75" s="85">
         <v>8168</v>
@@ -7790,7 +7796,7 @@
     <row r="76" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A76" s="91"/>
       <c r="B76" s="112" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C76" s="113">
         <v>249362</v>
@@ -7871,7 +7877,7 @@
     <row r="77" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A77" s="91"/>
       <c r="B77" s="84" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C77" s="99">
         <v>106866</v>
@@ -7952,7 +7958,7 @@
     <row r="78" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A78" s="91"/>
       <c r="B78" s="84" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C78" s="99">
         <v>170116</v>
@@ -8033,7 +8039,7 @@
     <row r="79" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="91"/>
       <c r="B79" s="105" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C79" s="106">
         <v>374397</v>
@@ -8114,7 +8120,7 @@
     <row r="80" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A80" s="91"/>
       <c r="B80" s="84" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C80" s="99">
         <v>39299</v>
@@ -8195,7 +8201,7 @@
     <row r="81" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A81" s="91"/>
       <c r="B81" s="84" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C81" s="99">
         <v>247315</v>
@@ -8276,7 +8282,7 @@
     <row r="82" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A82" s="91"/>
       <c r="B82" s="84" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C82" s="99">
         <v>344121</v>
@@ -8357,7 +8363,7 @@
     <row r="83" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="91"/>
       <c r="B83" s="84" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C83" s="85">
         <v>3494886</v>
@@ -8438,7 +8444,7 @@
     <row r="84" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A84" s="91"/>
       <c r="B84" s="112" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C84" s="113">
         <v>70754</v>
@@ -8519,7 +8525,7 @@
     <row r="85" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A85" s="91"/>
       <c r="B85" s="119" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C85" s="99">
         <v>52025</v>
@@ -8600,7 +8606,7 @@
     <row r="86" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A86" s="91"/>
       <c r="B86" s="84" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C86" s="99">
         <v>280928</v>
@@ -8681,7 +8687,7 @@
     <row r="87" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A87" s="91"/>
       <c r="B87" s="84" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C87" s="99">
         <v>1429175</v>
@@ -8762,7 +8768,7 @@
     <row r="88" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A88" s="91"/>
       <c r="B88" s="84" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C88" s="99">
         <v>31703</v>
@@ -8843,7 +8849,7 @@
     <row r="89" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A89" s="91"/>
       <c r="B89" s="84" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C89" s="99">
         <v>1918412</v>
@@ -8924,7 +8930,7 @@
     <row r="90" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="91"/>
       <c r="B90" s="105" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C90" s="106">
         <v>330240</v>
@@ -9005,7 +9011,7 @@
     <row r="91" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A91" s="91"/>
       <c r="B91" s="84" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C91" s="99">
         <v>96488</v>
@@ -9086,7 +9092,7 @@
     <row r="92" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A92" s="91"/>
       <c r="B92" s="84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C92" s="99">
         <v>143090</v>
@@ -9167,7 +9173,7 @@
     <row r="93" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A93" s="91"/>
       <c r="B93" s="84" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C93" s="99">
         <v>1460</v>
@@ -9248,7 +9254,7 @@
     <row r="94" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A94" s="91"/>
       <c r="B94" s="84" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C94" s="99">
         <v>17994</v>
@@ -9329,7 +9335,7 @@
     <row r="95" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A95" s="91"/>
       <c r="B95" s="84" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C95" s="99">
         <v>39807</v>
@@ -9410,7 +9416,7 @@
     <row r="96" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="91"/>
       <c r="B96" s="84" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C96" s="85">
         <v>99055</v>
@@ -9491,7 +9497,7 @@
     <row r="97" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A97" s="91"/>
       <c r="B97" s="112" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C97" s="113">
         <v>151565</v>
@@ -9572,7 +9578,7 @@
     <row r="98" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="91"/>
       <c r="B98" s="105" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C98" s="106">
         <v>309098</v>
@@ -9681,7 +9687,7 @@
     </row>
     <row r="100" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E100" s="123"/>
       <c r="G100" s="123"/>
@@ -9703,7 +9709,7 @@
     </row>
     <row r="101" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E101" s="123"/>
       <c r="G101" s="123"/>
@@ -9725,7 +9731,7 @@
     </row>
     <row r="102" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E102" s="123"/>
       <c r="G102" s="123"/>
@@ -9747,7 +9753,7 @@
     </row>
     <row r="103" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E103" s="123"/>
       <c r="G103" s="123"/>
@@ -9769,7 +9775,7 @@
     </row>
     <row r="104" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E104" s="123"/>
       <c r="G104" s="123"/>
@@ -9829,7 +9835,7 @@
     </row>
     <row r="107" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="125" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E107" s="123"/>
       <c r="G107" s="123"/>
@@ -9871,7 +9877,7 @@
     </row>
     <row r="109" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E109" s="123"/>
       <c r="G109" s="123"/>
@@ -9893,7 +9899,7 @@
     </row>
     <row r="110" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E110" s="123"/>
       <c r="G110" s="123"/>
@@ -9915,7 +9921,7 @@
     </row>
     <row r="111" spans="1:27" x14ac:dyDescent="0.25">
       <c r="B111" s="126" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E111" s="123"/>
       <c r="G111" s="123"/>
@@ -9938,7 +9944,7 @@
     <row r="112" spans="1:27" s="122" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1"/>
       <c r="B112" s="126" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E112" s="123"/>
       <c r="G112" s="123"/>
@@ -10001,11 +10007,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{5B2B0B7F-A082-45D8-8587-91334326233C}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{A7AAEF60-8260-4812-9059-569E1604FBFA}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{5E4E5535-E792-4E51-97FD-8F2226793F56}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{33F0C92E-4BF0-46EF-B458-8001FCA84C68}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{CF84C790-295E-47FD-BAE2-D14994CBB86D}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{706BD353-76DE-4396-BA0D-764A23F29C64}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{64D89F18-D9D7-4C16-BF81-0B21B4D2C5FE}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{0CAFB163-9826-42B4-9457-1E9F967BCA89}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{05D5C96F-BBBB-426B-891B-B8FC6F1F4A18}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{19B56231-6570-4981-B35D-5FD91FD50E92}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
